--- a/peaks.xlsx
+++ b/peaks.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tylbro1\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tylbro1\OneDrive - Five9\Desktop\bissell-peaks-dash\peaks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AEA1290-D8BF-4141-A280-33E2D9599380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E3364A-A33A-47AA-958E-399942E8592D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7070" yWindow="1880" windowWidth="28800" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-31605" yWindow="12360" windowWidth="28800" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Peaks" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Date</t>
   </si>
@@ -165,6 +165,27 @@
   </si>
   <si>
     <t>Maximum</t>
+  </si>
+  <si>
+    <t>02/14/2025</t>
+  </si>
+  <si>
+    <t>02/13/2025</t>
+  </si>
+  <si>
+    <t>02/12/2025</t>
+  </si>
+  <si>
+    <t>02/11/2025</t>
+  </si>
+  <si>
+    <t>02/10/2025</t>
+  </si>
+  <si>
+    <t>02/09/2025</t>
+  </si>
+  <si>
+    <t>02/08/2025</t>
   </si>
 </sst>
 </file>
@@ -563,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1238,23 +1259,142 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" s="2">
         <v>43</v>
       </c>
-      <c r="B40" s="3">
-        <f t="shared" ref="B40:E40" si="0">MAX(B2:B39)</f>
+      <c r="C40" s="2">
+        <v>34</v>
+      </c>
+      <c r="D40" s="2">
+        <v>19</v>
+      </c>
+      <c r="E40" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="2">
+        <v>21</v>
+      </c>
+      <c r="C41" s="2">
+        <v>14</v>
+      </c>
+      <c r="D41" s="2">
+        <v>8</v>
+      </c>
+      <c r="E41" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" s="2">
+        <v>82</v>
+      </c>
+      <c r="C42" s="2">
+        <v>54</v>
+      </c>
+      <c r="D42" s="2">
+        <v>28</v>
+      </c>
+      <c r="E42" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" s="2">
+        <v>55</v>
+      </c>
+      <c r="C43" s="2">
+        <v>48</v>
+      </c>
+      <c r="D43" s="2">
+        <v>20</v>
+      </c>
+      <c r="E43" s="2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="2">
+        <v>57</v>
+      </c>
+      <c r="C44" s="2">
+        <v>44</v>
+      </c>
+      <c r="D44" s="2">
+        <v>21</v>
+      </c>
+      <c r="E44" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="2">
+        <v>53</v>
+      </c>
+      <c r="C45" s="2">
+        <v>40</v>
+      </c>
+      <c r="D45" s="2">
+        <v>15</v>
+      </c>
+      <c r="E45" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2">
+        <v>10</v>
+      </c>
+      <c r="C46" s="2">
+        <v>6</v>
+      </c>
+      <c r="D46" s="2">
+        <v>6</v>
+      </c>
+      <c r="E46" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="3">
+        <f>MAX(B2:B46)</f>
         <v>99</v>
       </c>
-      <c r="C40" s="3">
-        <f t="shared" si="0"/>
+      <c r="C47" s="3">
+        <f>MAX(C2:C46)</f>
         <v>86</v>
       </c>
-      <c r="D40" s="3">
-        <f t="shared" si="0"/>
+      <c r="D47" s="3">
+        <f>MAX(D2:D46)</f>
         <v>38</v>
       </c>
-      <c r="E40" s="3">
-        <f t="shared" si="0"/>
+      <c r="E47" s="3">
+        <f>MAX(E2:E46)</f>
         <v>125</v>
       </c>
     </row>

--- a/peaks.xlsx
+++ b/peaks.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tylbro1\OneDrive - Five9\Desktop\bissell-peaks-dash\peaks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tylbro1\OneDrive - Five9\Desktop\docs\bissell-peaks-dash\peaks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E3364A-A33A-47AA-958E-399942E8592D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7981DD78-BDAE-458D-9E63-822B0CAA259E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31605" yWindow="12360" windowWidth="28800" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3040" yWindow="3040" windowWidth="33000" windowHeight="15170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Peaks" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>Date</t>
   </si>
@@ -186,6 +186,57 @@
   </si>
   <si>
     <t>02/08/2025</t>
+  </si>
+  <si>
+    <t>03/03/2025</t>
+  </si>
+  <si>
+    <t>03/02/2025</t>
+  </si>
+  <si>
+    <t>03/01/2025</t>
+  </si>
+  <si>
+    <t>02/28/2025</t>
+  </si>
+  <si>
+    <t>02/27/2025</t>
+  </si>
+  <si>
+    <t>02/26/2025</t>
+  </si>
+  <si>
+    <t>02/25/2025</t>
+  </si>
+  <si>
+    <t>02/24/2025</t>
+  </si>
+  <si>
+    <t>02/23/2025</t>
+  </si>
+  <si>
+    <t>02/22/2025</t>
+  </si>
+  <si>
+    <t>02/21/2025</t>
+  </si>
+  <si>
+    <t>02/20/2025</t>
+  </si>
+  <si>
+    <t>02/19/2025</t>
+  </si>
+  <si>
+    <t>02/18/2025</t>
+  </si>
+  <si>
+    <t>02/17/2025</t>
+  </si>
+  <si>
+    <t>02/16/2025</t>
+  </si>
+  <si>
+    <t>02/15/2025</t>
   </si>
 </sst>
 </file>
@@ -584,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I65" sqref="I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1378,23 +1429,312 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B47" s="2">
         <v>43</v>
       </c>
-      <c r="B47" s="3">
-        <f>MAX(B2:B46)</f>
+      <c r="C47" s="2">
+        <v>32</v>
+      </c>
+      <c r="D47" s="2">
+        <v>21</v>
+      </c>
+      <c r="E47" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" s="2">
+        <v>36</v>
+      </c>
+      <c r="C48" s="2">
+        <v>22</v>
+      </c>
+      <c r="D48" s="2">
+        <v>14</v>
+      </c>
+      <c r="E48" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" s="2">
+        <v>81</v>
+      </c>
+      <c r="C49" s="2">
+        <v>65</v>
+      </c>
+      <c r="D49" s="2">
+        <v>33</v>
+      </c>
+      <c r="E49" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B50" s="2">
+        <v>70</v>
+      </c>
+      <c r="C50" s="2">
+        <v>52</v>
+      </c>
+      <c r="D50" s="2">
+        <v>27</v>
+      </c>
+      <c r="E50" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" s="2">
+        <v>57</v>
+      </c>
+      <c r="C51" s="2">
+        <v>45</v>
+      </c>
+      <c r="D51" s="2">
+        <v>15</v>
+      </c>
+      <c r="E51" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B52" s="2">
+        <v>60</v>
+      </c>
+      <c r="C52" s="2">
+        <v>48</v>
+      </c>
+      <c r="D52" s="2">
+        <v>17</v>
+      </c>
+      <c r="E52" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53" s="2">
+        <v>54</v>
+      </c>
+      <c r="C53" s="2">
+        <v>45</v>
+      </c>
+      <c r="D53" s="2">
+        <v>15</v>
+      </c>
+      <c r="E53" s="2">
         <v>99</v>
       </c>
-      <c r="C47" s="3">
-        <f>MAX(C2:C46)</f>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54" s="2">
+        <v>46</v>
+      </c>
+      <c r="C54" s="2">
+        <v>31</v>
+      </c>
+      <c r="D54" s="2">
+        <v>23</v>
+      </c>
+      <c r="E54" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" s="2">
+        <v>29</v>
+      </c>
+      <c r="C55" s="2">
+        <v>19</v>
+      </c>
+      <c r="D55" s="2">
+        <v>11</v>
+      </c>
+      <c r="E55" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" s="2">
+        <v>77</v>
+      </c>
+      <c r="C56" s="2">
+        <v>64</v>
+      </c>
+      <c r="D56" s="2">
+        <v>25</v>
+      </c>
+      <c r="E56" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" s="2">
+        <v>63</v>
+      </c>
+      <c r="C57" s="2">
+        <v>48</v>
+      </c>
+      <c r="D57" s="2">
+        <v>23</v>
+      </c>
+      <c r="E57" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58" s="2">
+        <v>49</v>
+      </c>
+      <c r="C58" s="2">
+        <v>41</v>
+      </c>
+      <c r="D58" s="2">
+        <v>15</v>
+      </c>
+      <c r="E58" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B59" s="2">
+        <v>50</v>
+      </c>
+      <c r="C59" s="2">
+        <v>41</v>
+      </c>
+      <c r="D59" s="2">
+        <v>15</v>
+      </c>
+      <c r="E59" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B60" s="2">
+        <v>50</v>
+      </c>
+      <c r="C60" s="2">
+        <v>42</v>
+      </c>
+      <c r="D60" s="2">
+        <v>12</v>
+      </c>
+      <c r="E60" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B61" s="2">
+        <v>44</v>
+      </c>
+      <c r="C61" s="2">
+        <v>36</v>
+      </c>
+      <c r="D61" s="2">
+        <v>19</v>
+      </c>
+      <c r="E61" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B62" s="2">
+        <v>26</v>
+      </c>
+      <c r="C62" s="2">
+        <v>17</v>
+      </c>
+      <c r="D62" s="2">
+        <v>10</v>
+      </c>
+      <c r="E62" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B63" s="2">
+        <v>49</v>
+      </c>
+      <c r="C63" s="2">
+        <v>39</v>
+      </c>
+      <c r="D63" s="2">
+        <v>11</v>
+      </c>
+      <c r="E63" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B64" s="3">
+        <f>MAX(B2:B63)</f>
+        <v>99</v>
+      </c>
+      <c r="C64" s="3">
+        <f t="shared" ref="C64:E64" si="0">MAX(C2:C63)</f>
         <v>86</v>
       </c>
-      <c r="D47" s="3">
-        <f>MAX(D2:D46)</f>
+      <c r="D64" s="3">
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="E47" s="3">
-        <f>MAX(E2:E46)</f>
+      <c r="E64" s="3">
+        <f t="shared" si="0"/>
         <v>125</v>
       </c>
     </row>

--- a/peaks.xlsx
+++ b/peaks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tylbro1\OneDrive - Five9\Desktop\docs\bissell-peaks-dash\peaks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7981DD78-BDAE-458D-9E63-822B0CAA259E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7766490-2A8C-4313-967E-6F30772182BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3040" yWindow="3040" windowWidth="33000" windowHeight="15170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16380" yWindow="120" windowWidth="19010" windowHeight="20860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Peaks" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>Date</t>
   </si>
@@ -237,6 +237,24 @@
   </si>
   <si>
     <t>02/15/2025</t>
+  </si>
+  <si>
+    <t>03/04/2025</t>
+  </si>
+  <si>
+    <t>03/05/2025</t>
+  </si>
+  <si>
+    <t>03/06/2025</t>
+  </si>
+  <si>
+    <t>03/07/2025</t>
+  </si>
+  <si>
+    <t>03/08/2025</t>
+  </si>
+  <si>
+    <t>03/09/2025</t>
   </si>
 </sst>
 </file>
@@ -635,10 +653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I65" sqref="I65"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1705,36 +1723,138 @@
         <v>51</v>
       </c>
       <c r="B63" s="2">
+        <v>75</v>
+      </c>
+      <c r="C63" s="2">
+        <v>63</v>
+      </c>
+      <c r="D63" s="2">
+        <v>34</v>
+      </c>
+      <c r="E63" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64" s="2">
+        <v>59</v>
+      </c>
+      <c r="C64" s="2">
+        <v>47</v>
+      </c>
+      <c r="D64" s="2">
+        <v>19</v>
+      </c>
+      <c r="E64" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65" s="2">
         <v>49</v>
       </c>
-      <c r="C63" s="2">
-        <v>39</v>
-      </c>
-      <c r="D63" s="2">
-        <v>11</v>
-      </c>
-      <c r="E63" s="2">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64" s="3" t="s">
+      <c r="C65" s="2">
+        <v>40</v>
+      </c>
+      <c r="D65" s="2">
+        <v>12</v>
+      </c>
+      <c r="E65" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66" s="2">
+        <v>59</v>
+      </c>
+      <c r="C66" s="2">
+        <v>42</v>
+      </c>
+      <c r="D66" s="2">
+        <v>23</v>
+      </c>
+      <c r="E66" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B67" s="2">
+        <v>62</v>
+      </c>
+      <c r="C67" s="2">
+        <v>46</v>
+      </c>
+      <c r="D67" s="2">
+        <v>27</v>
+      </c>
+      <c r="E67" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B68" s="2">
+        <v>45</v>
+      </c>
+      <c r="C68" s="2">
+        <v>35</v>
+      </c>
+      <c r="D68" s="2">
+        <v>18</v>
+      </c>
+      <c r="E68" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B69" s="2">
+        <v>21</v>
+      </c>
+      <c r="C69" s="2">
+        <v>13</v>
+      </c>
+      <c r="D69" s="2">
+        <v>8</v>
+      </c>
+      <c r="E69" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B64" s="3">
-        <f>MAX(B2:B63)</f>
+      <c r="B70" s="3">
+        <f>MAX(B2:B69)</f>
         <v>99</v>
       </c>
-      <c r="C64" s="3">
-        <f t="shared" ref="C64:E64" si="0">MAX(C2:C63)</f>
+      <c r="C70" s="3">
+        <f>MAX(C2:C69)</f>
         <v>86</v>
       </c>
-      <c r="D64" s="3">
-        <f t="shared" si="0"/>
+      <c r="D70" s="3">
+        <f>MAX(D2:D69)</f>
         <v>38</v>
       </c>
-      <c r="E64" s="3">
-        <f t="shared" si="0"/>
+      <c r="E70" s="3">
+        <f>MAX(E2:E69)</f>
         <v>125</v>
       </c>
     </row>
